--- a/database/industries/methanol/shekolor/balancesheet/yearly.xlsx
+++ b/database/industries/methanol/shekolor/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA48C2F-ED3B-455C-AA1F-AA804C128CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CB5B0F-83B4-493C-96D1-938108C5F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/methanol/shekolor/balancesheet/yearly.xlsx
+++ b/database/industries/methanol/shekolor/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CB5B0F-83B4-493C-96D1-938108C5F4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C994F-7B77-4E28-9F63-AD9065F83699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,12 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1398/05</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1399/05</t>
+  </si>
+  <si>
     <t>12 ماهه منتهی به 1399/12</t>
   </si>
   <si>
@@ -55,19 +55,19 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-07-24 (6)</t>
-  </si>
-  <si>
     <t>1399-07-24 (8)</t>
   </si>
   <si>
-    <t>1400-10-08 (11)</t>
+    <t>1400-01-30 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-08 (6)</t>
   </si>
   <si>
     <t>1401-10-28 (9)</t>
   </si>
   <si>
-    <t>1401-12-29 (4)</t>
+    <t>1402-03-30 (5)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -848,10 +848,10 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>96252</v>
+        <v>238048</v>
       </c>
       <c r="E12" s="15">
-        <v>238048</v>
+        <v>527797</v>
       </c>
       <c r="F12" s="15">
         <v>697438</v>
@@ -869,10 +869,10 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>468</v>
+        <v>102212</v>
       </c>
       <c r="E13" s="11">
-        <v>102212</v>
+        <v>151529</v>
       </c>
       <c r="F13" s="11">
         <v>2109</v>
@@ -890,10 +890,10 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>139760</v>
+        <v>302775</v>
       </c>
       <c r="E14" s="15">
-        <v>302775</v>
+        <v>253631</v>
       </c>
       <c r="F14" s="15">
         <v>299937</v>
@@ -911,10 +911,10 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>103111</v>
+        <v>237811</v>
       </c>
       <c r="E15" s="11">
-        <v>237811</v>
+        <v>480708</v>
       </c>
       <c r="F15" s="11">
         <v>655745</v>
@@ -932,10 +932,10 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>47139</v>
+        <v>94713</v>
       </c>
       <c r="E16" s="15">
-        <v>94713</v>
+        <v>36614</v>
       </c>
       <c r="F16" s="15">
         <v>145586</v>
@@ -953,10 +953,10 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>5113</v>
       </c>
       <c r="E17" s="11">
-        <v>5113</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -974,10 +974,10 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>386730</v>
+        <v>980672</v>
       </c>
       <c r="E18" s="17">
-        <v>980672</v>
+        <v>1450279</v>
       </c>
       <c r="F18" s="17">
         <v>1800815</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>773</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
@@ -1016,10 +1016,10 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>142200</v>
+        <v>135400</v>
       </c>
       <c r="E20" s="15">
-        <v>135400</v>
+        <v>170220</v>
       </c>
       <c r="F20" s="15">
         <v>446020</v>
@@ -1058,10 +1058,10 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>805862</v>
+        <v>837329</v>
       </c>
       <c r="E22" s="15">
-        <v>837329</v>
+        <v>792828</v>
       </c>
       <c r="F22" s="15">
         <v>869565</v>
@@ -1079,10 +1079,10 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>10964</v>
+        <v>11661</v>
       </c>
       <c r="E23" s="11">
-        <v>11661</v>
+        <v>42668</v>
       </c>
       <c r="F23" s="11">
         <v>43231</v>
@@ -1142,10 +1142,10 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>959799</v>
+        <v>984390</v>
       </c>
       <c r="E26" s="17">
-        <v>984390</v>
+        <v>1005716</v>
       </c>
       <c r="F26" s="17">
         <v>1390807</v>
@@ -1163,10 +1163,10 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1346529</v>
+        <v>1965062</v>
       </c>
       <c r="E27" s="19">
-        <v>1965062</v>
+        <v>2455995</v>
       </c>
       <c r="F27" s="19">
         <v>3191622</v>
@@ -1195,10 +1195,10 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>82196</v>
+        <v>186237</v>
       </c>
       <c r="E29" s="15">
-        <v>186237</v>
+        <v>264137</v>
       </c>
       <c r="F29" s="15">
         <v>393504</v>
@@ -1237,10 +1237,10 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>12090</v>
+        <v>14528</v>
       </c>
       <c r="E31" s="15">
-        <v>14528</v>
+        <v>32487</v>
       </c>
       <c r="F31" s="15">
         <v>98623</v>
@@ -1258,10 +1258,10 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>0</v>
+        <v>71156</v>
       </c>
       <c r="E32" s="11">
-        <v>71156</v>
+        <v>69319</v>
       </c>
       <c r="F32" s="11">
         <v>161968</v>
@@ -1279,10 +1279,10 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>4278</v>
+        <v>11041</v>
       </c>
       <c r="E33" s="15">
-        <v>11041</v>
+        <v>25533</v>
       </c>
       <c r="F33" s="15">
         <v>478065</v>
@@ -1300,10 +1300,10 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>160665</v>
+        <v>327890</v>
       </c>
       <c r="E34" s="11">
-        <v>327890</v>
+        <v>321172</v>
       </c>
       <c r="F34" s="11">
         <v>541084</v>
@@ -1363,10 +1363,10 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>259229</v>
+        <v>610852</v>
       </c>
       <c r="E37" s="17">
-        <v>610852</v>
+        <v>712648</v>
       </c>
       <c r="F37" s="17">
         <v>1673244</v>
@@ -1426,10 +1426,10 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>312103</v>
+        <v>135025</v>
       </c>
       <c r="E40" s="11">
-        <v>135025</v>
+        <v>96303</v>
       </c>
       <c r="F40" s="11">
         <v>31074</v>
@@ -1447,10 +1447,10 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>15929</v>
+        <v>17927</v>
       </c>
       <c r="E41" s="15">
-        <v>17927</v>
+        <v>45388</v>
       </c>
       <c r="F41" s="15">
         <v>45467</v>
@@ -1468,10 +1468,10 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>328032</v>
+        <v>152952</v>
       </c>
       <c r="E42" s="19">
-        <v>152952</v>
+        <v>141691</v>
       </c>
       <c r="F42" s="19">
         <v>76541</v>
@@ -1489,10 +1489,10 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>587261</v>
+        <v>763804</v>
       </c>
       <c r="E43" s="17">
-        <v>763804</v>
+        <v>854339</v>
       </c>
       <c r="F43" s="17">
         <v>1749785</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>37930</v>
+        <v>50000</v>
       </c>
       <c r="E50" s="11">
         <v>50000</v>
@@ -1752,10 +1752,10 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>221338</v>
+        <v>651258</v>
       </c>
       <c r="E56" s="11">
-        <v>651258</v>
+        <v>1051656</v>
       </c>
       <c r="F56" s="11">
         <v>1075189</v>
@@ -1773,10 +1773,10 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>759268</v>
+        <v>1201258</v>
       </c>
       <c r="E57" s="17">
-        <v>1201258</v>
+        <v>1601656</v>
       </c>
       <c r="F57" s="17">
         <v>1441837</v>
@@ -1794,10 +1794,10 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1346529</v>
+        <v>1965062</v>
       </c>
       <c r="E58" s="19">
-        <v>1965062</v>
+        <v>2455995</v>
       </c>
       <c r="F58" s="19">
         <v>3191622</v>
